--- a/spatial plan for flood protection/seminar cze/mcdm.xlsx
+++ b/spatial plan for flood protection/seminar cze/mcdm.xlsx
@@ -38,9 +38,6 @@
     <t>Nature-based flood protection</t>
   </si>
   <si>
-    <t>American Dry retention basin</t>
-  </si>
-  <si>
     <t>Brdy retention capacity increase</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>CASE 3</t>
+  </si>
+  <si>
+    <t>Amerika dry retention area</t>
   </si>
 </sst>
 </file>
@@ -212,44 +212,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +534,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F17"/>
+      <selection activeCell="A19" sqref="A19:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,40 +547,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.4</v>
       </c>
       <c r="C3" s="1">
@@ -597,30 +597,30 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.15</v>
       </c>
       <c r="C5" s="1">
@@ -637,30 +637,30 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2">
         <f>AVERAGE($B$3*C3+$B$4*C4+$B$5*C5+$B$6*C6)</f>
         <v>5.4</v>
@@ -679,58 +679,58 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="13">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.3</v>
       </c>
       <c r="C12" s="1">
@@ -747,30 +747,30 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.1</v>
       </c>
       <c r="C14" s="1">
@@ -787,30 +787,30 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2">
         <f>AVERAGE($B$12*C12+$B$13*C13+$B$14*C14+$B$15*C15)</f>
         <v>5.8</v>
@@ -829,58 +829,58 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.4</v>
       </c>
       <c r="C21" s="1">
@@ -897,30 +897,30 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0.15</v>
       </c>
       <c r="C23" s="1">
@@ -937,30 +937,30 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2">
         <f>AVERAGE($B$21*C21+$B$22*C22+$B$23*C23+$B$24*C24)</f>
         <v>6</v>
@@ -979,20 +979,20 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="12">
+      <c r="A26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>3</v>
       </c>
-      <c r="E26" s="11">
-        <v>4</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="E26" s="10">
+        <v>4</v>
+      </c>
+      <c r="F26" s="13">
         <v>2</v>
       </c>
     </row>

--- a/spatial plan for flood protection/seminar cze/mcdm.xlsx
+++ b/spatial plan for flood protection/seminar cze/mcdm.xlsx
@@ -268,6 +268,1339 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strengthening current Rokycany FP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Feuil1!$A$1,Feuil1!$A$10,Feuil1!$A$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CASE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CASE 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$C$7,Feuil1!$C$16,Feuil1!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9345-4EDC-A117-87DFC2730862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nature-based flood protection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Feuil1!$A$1,Feuil1!$A$10,Feuil1!$A$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CASE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CASE 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$D$7,Feuil1!$D$16,Feuil1!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9345-4EDC-A117-87DFC2730862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amerika dry retention area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Feuil1!$A$1,Feuil1!$A$10,Feuil1!$A$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CASE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CASE 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$E$7,Feuil1!$E$16,Feuil1!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9345-4EDC-A117-87DFC2730862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brdy retention capacity increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Feuil1!$A$1,Feuil1!$A$10,Feuil1!$A$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CASE 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASE 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CASE 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$F$7,Feuil1!$F$16,Feuil1!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9345-4EDC-A117-87DFC2730862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="389135816"/>
+        <c:axId val="389134832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389135816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389134832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389134832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389135816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>512617</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -534,7 +1867,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F26"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,5 +2343,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>